--- a/Lab 1, task 1 table.xlsx
+++ b/Lab 1, task 1 table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/askeblom/Desktop/DTU/5. semester/ISDN 2601 - Exploring the World through Smart Mechatronics/Lab 1/Lab1_T1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB6AF9F-C100-9B4E-B9E6-C92B515EE7E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{595C0C4A-4ADB-3441-ADDB-674F1EE50B3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="1260" windowWidth="27640" windowHeight="16460" xr2:uid="{9A3B61CF-36DF-2841-A0D1-4684421748E9}"/>
   </bookViews>
@@ -1906,7 +1906,1945 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>V_out</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="7.8772881543388254E-2"/>
+                  <c:y val="-0.13833953047535724"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-DK"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$257</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="256"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.57</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.96</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.14</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.53</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.92</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.3099999999999996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.71</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.49</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.88</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.27</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.67</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.06</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.45</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.84</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8.24</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.6300000000000008</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.02</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.41</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>10.199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10.59</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>10.98</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>11.37</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>11.76</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>12.16</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>12.55</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>12.94</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>13.33</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>13.73</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>14.12</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>14.51</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>14.9</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>15.29</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>15.69</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>16.079999999999998</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>16.47</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>16.86</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>17.25</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>17.649999999999999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>18.04</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>18.43</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>18.82</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>19.22</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>19.61</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>20.39</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>20.78</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>21.18</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>21.57</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>21.96</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>22.35</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>22.75</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>23.14</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>23.53</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>23.92</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>24.31</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>24.71</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>25.1</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>25.49</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>25.88</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>26.27</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>26.67</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>27.06</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>27.45</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>27.84</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>28.24</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>28.63</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>29.02</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>29.41</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>29.8</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>30.2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>30.59</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>30.98</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>31.37</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>31.76</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>32.159999999999997</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>32.549999999999997</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>32.94</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>33.33</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>33.729999999999997</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>34.119999999999997</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>34.51</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>34.9</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>35.29</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>35.69</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>36.08</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>36.47</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>36.86</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>37.25</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>37.65</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>38.04</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>38.43</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>38.82</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>39.22</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>39.61</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>40.39</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>40.78</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>41.18</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>41.57</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>41.96</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>42.35</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>42.75</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>43.14</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>43.53</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>43.92</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>44.31</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>44.71</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>45.1</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>45.49</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>45.88</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>46.27</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>46.67</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>47.06</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>47.45</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>47.84</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>48.24</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>48.63</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>49.02</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>49.41</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>49.8</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>50.2</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>50.59</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>50.98</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>51.37</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>51.76</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>52.16</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>52.55</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>52.94</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>53.33</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>53.73</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>54.12</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>54.51</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>54.9</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>55.29</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>55.69</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>56.08</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>56.47</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>56.86</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>57.25</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>57.65</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>58.04</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>58.43</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>58.82</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>59.22</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>59.61</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>60.39</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>60.78</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>61.18</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>61.57</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>61.96</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>62.35</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>62.75</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>63.14</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>63.53</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>63.92</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>64.31</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>64.709999999999994</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>65.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>65.489999999999995</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>65.88</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>66.27</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>66.67</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>67.06</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>67.45</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>67.84</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>68.239999999999995</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>68.63</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>69.02</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>69.41</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>69.8</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>70.2</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>70.59</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>70.98</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>71.37</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>71.760000000000005</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>72.16</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>72.55</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>72.94</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>73.33</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>73.73</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>74.12</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>74.510000000000005</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>74.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>75.290000000000006</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>75.69</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>76.08</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>76.47</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>76.86</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>77.25</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>77.650000000000006</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>78.040000000000006</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>78.430000000000007</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>78.819999999999993</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>79.22</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>79.61</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>80.39</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>80.78</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>81.180000000000007</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>81.569999999999993</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>81.96</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>82.35</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>82.75</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>83.14</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>83.53</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>83.92</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>84.31</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>84.71</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>85.1</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>85.49</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>85.88</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>86.27</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>86.67</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>87.06</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>87.45</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>87.84</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>88.24</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>88.63</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>89.02</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>89.41</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>89.8</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>90.2</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>90.59</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>90.98</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>91.37</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>91.76</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>92.16</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>92.55</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>92.94</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>93.33</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>93.73</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>94.12</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>94.51</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>94.9</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>95.29</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>95.69</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>96.08</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>96.47</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>96.86</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>97.25</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>97.65</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>98.04</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>98.43</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>98.82</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>99.22</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>99.61</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$257</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="256"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.17</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.26</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.34</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.56</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.76</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.93</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.02</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.22</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>3.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AC7B-0C41-B3BF-B141F6E4625C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="654543744"/>
+        <c:axId val="654484064"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="654543744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="654484064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="654484064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="654543744"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-DK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2462,6 +4400,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -2495,6 +4949,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>273050</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>717550</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E6D42A2-7070-C8A3-D144-67F862EFB2FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2822,8 +5312,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B69215FF-E6E5-5C45-8A49-20F62E061728}">
   <dimension ref="A1:H257"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" topLeftCell="B14" zoomScale="150" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
